--- a/Prj2/save/QLTuThuoc.xlsx
+++ b/Prj2/save/QLTuThuoc.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357568" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357719" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -261,6 +261,24 @@
   </si>
   <si>
     <t>adsf</t>
+  </si>
+  <si>
+    <t>Toa thuốc số 1</t>
+  </si>
+  <si>
+    <t>1 viên 1 ngày sau ăn</t>
+  </si>
+  <si>
+    <t>Toa thuốc chữa trĩ cho Hồng</t>
+  </si>
+  <si>
+    <t>1 viên 1 ngày</t>
+  </si>
+  <si>
+    <t>Toa thuốc cho Riêu</t>
+  </si>
+  <si>
+    <t>150ml 1 ngày</t>
   </si>
 </sst>
 </file>
@@ -316,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="86">
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -325,6 +343,12 @@
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
@@ -672,7 +696,7 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="78" t="n">
+      <c r="F2" s="84" t="n">
         <v>45005.0</v>
       </c>
     </row>
@@ -692,7 +716,7 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="78" t="n">
+      <c r="F3" s="84" t="n">
         <v>44757.0</v>
       </c>
     </row>
@@ -712,7 +736,7 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="78" t="n">
+      <c r="F4" s="84" t="n">
         <v>45000.0</v>
       </c>
     </row>
@@ -732,7 +756,7 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="78" t="n">
+      <c r="F5" s="84" t="n">
         <v>45119.0</v>
       </c>
     </row>
@@ -752,7 +776,7 @@
       <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="78" t="n">
+      <c r="F6" s="84" t="n">
         <v>44757.0</v>
       </c>
     </row>
@@ -772,7 +796,7 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="78" t="n">
+      <c r="F7" s="84" t="n">
         <v>37467.0</v>
       </c>
     </row>
@@ -792,7 +816,7 @@
       <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="78" t="n">
+      <c r="F8" s="84" t="n">
         <v>37467.0</v>
       </c>
     </row>
@@ -812,7 +836,7 @@
       <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="78" t="n">
+      <c r="F9" s="84" t="n">
         <v>45000.0</v>
       </c>
     </row>
@@ -832,7 +856,7 @@
       <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="78" t="n">
+      <c r="F10" s="84" t="n">
         <v>37467.0</v>
       </c>
     </row>
@@ -852,7 +876,7 @@
       <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="78" t="n">
+      <c r="F11" s="84" t="n">
         <v>45005.0</v>
       </c>
     </row>
@@ -872,7 +896,7 @@
       <c r="E12" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="78" t="n">
+      <c r="F12" s="84" t="n">
         <v>44772.0</v>
       </c>
     </row>
@@ -887,7 +911,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -918,13 +942,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" t="n" s="79">
-        <v>44764.0</v>
-      </c>
-      <c r="D2" t="n" s="79">
-        <v>44739.0</v>
+        <v>75</v>
+      </c>
+      <c r="C2" t="n" s="85">
+        <v>44757.0</v>
+      </c>
+      <c r="D2" t="n" s="85">
+        <v>44755.0</v>
       </c>
     </row>
     <row r="3">
@@ -932,13 +956,27 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="n" s="79">
-        <v>44741.0</v>
-      </c>
-      <c r="D3" t="n" s="79">
-        <v>44740.0</v>
+        <v>77</v>
+      </c>
+      <c r="C3" t="n" s="85">
+        <v>44751.0</v>
+      </c>
+      <c r="D3" t="n" s="85">
+        <v>44745.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="n" s="85">
+        <v>44761.0</v>
+      </c>
+      <c r="D4" t="n" s="85">
+        <v>44757.0</v>
       </c>
     </row>
   </sheetData>
@@ -1015,7 +1053,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD14"/>
@@ -1045,13 +1083,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
         <v>1.0</v>
@@ -1062,16 +1100,33 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
         <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>

--- a/Prj2/save/QLTuThuoc.xlsx
+++ b/Prj2/save/QLTuThuoc.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357568" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357688" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -261,6 +261,72 @@
   </si>
   <si>
     <t>adsf</t>
+  </si>
+  <si>
+    <t>Hộp</t>
+  </si>
+  <si>
+    <t>Hạ sốt, Giảm đau</t>
+  </si>
+  <si>
+    <t>Gói</t>
+  </si>
+  <si>
+    <t>Hạ sốt</t>
+  </si>
+  <si>
+    <t>GIảm đau,Hạ sốt</t>
+  </si>
+  <si>
+    <t>Điều trị đau bụng, tiêu chảy</t>
+  </si>
+  <si>
+    <t>Vỉ</t>
+  </si>
+  <si>
+    <t>Điều trị táo bón</t>
+  </si>
+  <si>
+    <t>Điều trị rối loạn tiêu hóa</t>
+  </si>
+  <si>
+    <t>Điều trị cảm lạnh</t>
+  </si>
+  <si>
+    <t>Điều trị nhiễm khuẩn</t>
+  </si>
+  <si>
+    <t>Giảm Đau</t>
+  </si>
+  <si>
+    <t>Panadol cảm cúm Extra</t>
+  </si>
+  <si>
+    <t>Điều trị cảm cúm, cảm lạnh</t>
+  </si>
+  <si>
+    <t>Ameflu (Chai 60ml)</t>
+  </si>
+  <si>
+    <t>Chai</t>
+  </si>
+  <si>
+    <t>Decolgen sachet 5ml</t>
+  </si>
+  <si>
+    <t>Điều trị viêm mũi, cảm thông thường</t>
+  </si>
+  <si>
+    <t>Uống 1−2 viên x 3−4 lần/ngày.</t>
+  </si>
+  <si>
+    <t>Uống 1-2 viên sau bữa ăn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> uống 1- 2 viên mỗi lần x 2-4 lần/ngày</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> uống 1 – 2 viên/lần sau bữa ăn</t>
   </si>
 </sst>
 </file>
@@ -316,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -325,6 +391,10 @@
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
@@ -617,7 +687,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D12"/>
@@ -667,12 +737,12 @@
         <v>2.0</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="78" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2" s="82" t="n">
         <v>45005.0</v>
       </c>
     </row>
@@ -687,12 +757,12 @@
         <v>5.0</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="78" t="n">
+        <v>78</v>
+      </c>
+      <c r="F3" s="82" t="n">
         <v>44757.0</v>
       </c>
     </row>
@@ -707,12 +777,12 @@
         <v>1.0</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="78" t="n">
+        <v>79</v>
+      </c>
+      <c r="F4" s="82" t="n">
         <v>45000.0</v>
       </c>
     </row>
@@ -727,12 +797,12 @@
         <v>1.0</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="78" t="n">
+        <v>80</v>
+      </c>
+      <c r="F5" s="82" t="n">
         <v>45119.0</v>
       </c>
     </row>
@@ -747,12 +817,12 @@
         <v>3.0</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="78" t="n">
+        <v>82</v>
+      </c>
+      <c r="F6" s="82" t="n">
         <v>44757.0</v>
       </c>
     </row>
@@ -767,12 +837,12 @@
         <v>5.0</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="78" t="n">
+        <v>83</v>
+      </c>
+      <c r="F7" s="82" t="n">
         <v>37467.0</v>
       </c>
     </row>
@@ -787,12 +857,12 @@
         <v>2.0</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="78" t="n">
+        <v>84</v>
+      </c>
+      <c r="F8" s="82" t="n">
         <v>37467.0</v>
       </c>
     </row>
@@ -807,12 +877,12 @@
         <v>4.0</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="78" t="n">
+        <v>84</v>
+      </c>
+      <c r="F9" s="82" t="n">
         <v>45000.0</v>
       </c>
     </row>
@@ -827,12 +897,12 @@
         <v>2.0</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="78" t="n">
+        <v>85</v>
+      </c>
+      <c r="F10" s="82" t="n">
         <v>37467.0</v>
       </c>
     </row>
@@ -847,12 +917,12 @@
         <v>1.0</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="78" t="n">
+        <v>85</v>
+      </c>
+      <c r="F11" s="82" t="n">
         <v>45005.0</v>
       </c>
     </row>
@@ -867,13 +937,73 @@
         <v>6.0</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="78" t="n">
+        <v>86</v>
+      </c>
+      <c r="F12" s="82" t="n">
         <v>44772.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="82" t="n">
+        <v>45134.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="82" t="n">
+        <v>45127.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="82" t="n">
+        <v>45129.0</v>
       </c>
     </row>
   </sheetData>
@@ -887,7 +1017,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -918,27 +1048,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" t="n" s="79">
-        <v>44764.0</v>
-      </c>
-      <c r="D2" t="n" s="79">
-        <v>44739.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="n" s="79">
-        <v>44741.0</v>
-      </c>
-      <c r="D3" t="n" s="79">
-        <v>44740.0</v>
+        <v>71</v>
+      </c>
+      <c r="C2" t="n" s="83">
+        <v>45108.0</v>
+      </c>
+      <c r="D2" t="n" s="83">
+        <v>45105.0</v>
       </c>
     </row>
   </sheetData>
@@ -1015,7 +1131,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD14"/>
@@ -1045,13 +1161,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E2" t="n">
         <v>1.0</v>
@@ -1059,19 +1175,53 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="n">
         <v>1.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.0</v>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/Prj2/save/QLTuThuoc.xlsx
+++ b/Prj2/save/QLTuThuoc.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357688" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357844" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -327,6 +327,33 @@
   </si>
   <si>
     <t xml:space="preserve"> uống 1 – 2 viên/lần sau bữa ăn</t>
+  </si>
+  <si>
+    <t>Điều trị tiêu chảy cấp</t>
+  </si>
+  <si>
+    <t>15 viên/lần, 1 ngày 2 lần</t>
+  </si>
+  <si>
+    <t>1 viên/lần, sau bữa ăn</t>
+  </si>
+  <si>
+    <t>Điều trị viêm xoang</t>
+  </si>
+  <si>
+    <t>1 viên/ lần, 1 ngày 3 lần sau bữa ăn</t>
+  </si>
+  <si>
+    <t>Chiếc</t>
+  </si>
+  <si>
+    <t>Đo thân nhiệt</t>
+  </si>
+  <si>
+    <t>Đo nồng độ oxi trong máu</t>
+  </si>
+  <si>
+    <t>Băng dán bảo vệ vết thương</t>
   </si>
 </sst>
 </file>
@@ -382,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="88">
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -391,6 +418,10 @@
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
@@ -742,8 +773,8 @@
       <c r="E2" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="82" t="n">
-        <v>45005.0</v>
+      <c r="F2" s="86" t="n">
+        <v>44760.0</v>
       </c>
     </row>
     <row r="3">
@@ -762,8 +793,8 @@
       <c r="E3" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="82" t="n">
-        <v>44757.0</v>
+      <c r="F3" s="86" t="n">
+        <v>44763.0</v>
       </c>
     </row>
     <row r="4">
@@ -782,7 +813,7 @@
       <c r="E4" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="82" t="n">
+      <c r="F4" s="86" t="n">
         <v>45000.0</v>
       </c>
     </row>
@@ -802,7 +833,7 @@
       <c r="E5" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="82" t="n">
+      <c r="F5" s="86" t="n">
         <v>45119.0</v>
       </c>
     </row>
@@ -822,8 +853,8 @@
       <c r="E6" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="82" t="n">
-        <v>44757.0</v>
+      <c r="F6" s="86" t="n">
+        <v>44760.0</v>
       </c>
     </row>
     <row r="7">
@@ -842,8 +873,8 @@
       <c r="E7" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="82" t="n">
-        <v>37467.0</v>
+      <c r="F7" s="86" t="n">
+        <v>37460.0</v>
       </c>
     </row>
     <row r="8">
@@ -862,7 +893,7 @@
       <c r="E8" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="82" t="n">
+      <c r="F8" s="86" t="n">
         <v>37467.0</v>
       </c>
     </row>
@@ -882,7 +913,7 @@
       <c r="E9" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="82" t="n">
+      <c r="F9" s="86" t="n">
         <v>45000.0</v>
       </c>
     </row>
@@ -902,7 +933,7 @@
       <c r="E10" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="82" t="n">
+      <c r="F10" s="86" t="n">
         <v>37467.0</v>
       </c>
     </row>
@@ -922,7 +953,7 @@
       <c r="E11" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="82" t="n">
+      <c r="F11" s="86" t="n">
         <v>45005.0</v>
       </c>
     </row>
@@ -942,7 +973,7 @@
       <c r="E12" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="82" t="n">
+      <c r="F12" s="86" t="n">
         <v>44772.0</v>
       </c>
     </row>
@@ -962,7 +993,7 @@
       <c r="E13" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="82" t="n">
+      <c r="F13" s="86" t="n">
         <v>45134.0</v>
       </c>
     </row>
@@ -982,7 +1013,7 @@
       <c r="E14" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="82" t="n">
+      <c r="F14" s="86" t="n">
         <v>45127.0</v>
       </c>
     </row>
@@ -1002,7 +1033,7 @@
       <c r="E15" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="82" t="n">
+      <c r="F15" s="86" t="n">
         <v>45129.0</v>
       </c>
     </row>
@@ -1017,7 +1048,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -1050,11 +1081,39 @@
       <c r="B2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="n" s="83">
+      <c r="C2" t="n" s="87">
         <v>45108.0</v>
       </c>
-      <c r="D2" t="n" s="83">
+      <c r="D2" t="n" s="87">
         <v>45105.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="n" s="87">
+        <v>44763.0</v>
+      </c>
+      <c r="D3" t="n" s="87">
+        <v>44757.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n" s="87">
+        <v>44750.0</v>
+      </c>
+      <c r="D4" t="n" s="87">
+        <v>44746.0</v>
       </c>
     </row>
   </sheetData>
@@ -1131,7 +1190,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD14"/>
@@ -1222,6 +1281,57 @@
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -1275,10 +1385,10 @@
         <v>2.0</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3">
@@ -1292,10 +1402,10 @@
         <v>1.0</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4">
@@ -1309,10 +1419,10 @@
         <v>1.0</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
@@ -1326,10 +1436,10 @@
         <v>2.0</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
